--- a/Data/Excel_Long/camino_gender_long.xlsx
+++ b/Data/Excel_Long/camino_gender_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F451"/>
+  <dimension ref="A1:F456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>454</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>189</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>910</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>491</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1838</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1267</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8437</v>
+        <v>16874</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7117</v>
+        <v>14234</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9778</v>
+        <v>19556</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7082</v>
+        <v>14164</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11223</v>
+        <v>22446</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8072</v>
+        <v>16144</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>17096</v>
+        <v>34192</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14795</v>
+        <v>29590</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25014</v>
+        <v>50028</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>20587</v>
+        <v>41174</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12737</v>
+        <v>25474</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10015</v>
+        <v>20030</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8337</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6219</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2454</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1956</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2105</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1697</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>196</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>333</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>232</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1875</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1246</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1944</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1363</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5635</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3675</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7859</v>
+        <v>15718</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4760</v>
+        <v>9520</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10677</v>
+        <v>21354</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>8127</v>
+        <v>16254</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>14468</v>
+        <v>28936</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10363</v>
+        <v>20726</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7155</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5013</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4142</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2731</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>928</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>460</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>495</v>
+        <v>990</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>173</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>241</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>83</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>225</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>710</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4333</v>
+        <v>8666</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3118</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6212</v>
+        <v>12424</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3935</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8037</v>
+        <v>16074</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>4974</v>
+        <v>9948</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>10513</v>
+        <v>21026</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8207</v>
+        <v>16414</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15373</v>
+        <v>30746</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>10810</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7819</v>
+        <v>15638</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5651</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4602</v>
+        <v>9204</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3098</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1167</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>588</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>605</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>243</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>252</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>418</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>247</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1057</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>623</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4690</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3425</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7725</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5199</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9110</v>
+        <v>18220</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6072</v>
+        <v>12144</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>11295</v>
+        <v>22590</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8861</v>
+        <v>17722</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>15912</v>
+        <v>31824</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>11377</v>
+        <v>22754</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>8802</v>
+        <v>17604</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6480</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="92">
@@ -11258,6 +11258,126 @@
       </c>
       <c r="F451" t="n">
         <v>26845</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D452" t="n">
+        <v>11</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F452" t="n">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D453" t="n">
+        <v>11</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F453" t="n">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D454" t="n">
+        <v>12</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F454" t="n">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D455" t="n">
+        <v>12</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F455" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D456" t="n">
+        <v>12</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Sin establecer</t>
+        </is>
+      </c>
+      <c r="F456" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Long/camino_gender_long.xlsx
+++ b/Data/Excel_Long/camino_gender_long.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F456"/>
+  <dimension ref="A1:F458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>908</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>378</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1820</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>982</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3676</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2534</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>16874</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14234</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>19556</v>
+        <v>9778</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14164</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="12">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22446</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>16144</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="14">
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>34192</v>
+        <v>17096</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29590</v>
+        <v>14795</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50028</v>
+        <v>25014</v>
       </c>
     </row>
     <row r="17">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41174</v>
+        <v>20587</v>
       </c>
     </row>
     <row r="18">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25474</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20030</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="20">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>16674</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="21">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12438</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="22">
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4908</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="23">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3912</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="24">
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4210</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="25">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3394</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="26">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>392</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>666</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>464</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3750</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="31">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2492</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="32">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3888</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="33">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2726</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="34">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11270</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="35">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>7350</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="36">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15718</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="37">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9520</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="38">
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>21354</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="39">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>16254</v>
+        <v>8127</v>
       </c>
     </row>
     <row r="40">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>28936</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>20726</v>
+        <v>10363</v>
       </c>
     </row>
     <row r="42">
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14310</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="43">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10026</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="44">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>8284</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="45">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5462</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="46">
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1856</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>920</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48">
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>990</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>346</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>482</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>166</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>450</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1420</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>772</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8666</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="57">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6236</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="58">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12424</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="59">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>7870</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="60">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>16074</v>
+        <v>8037</v>
       </c>
     </row>
     <row r="61">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>9948</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="62">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>21026</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="63">
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>16414</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="64">
@@ -1969,7 +1969,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30746</v>
+        <v>15373</v>
       </c>
     </row>
     <row r="65">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>21620</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="66">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15638</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="67">
@@ -2041,7 +2041,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>11302</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="68">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9204</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="69">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6196</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="70">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2334</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="71">
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1176</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1210</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>486</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>504</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>836</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77">
@@ -2281,7 +2281,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>494</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2114</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="79">
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1246</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>9380</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="81">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6850</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="82">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>15450</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="83">
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>10398</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="84">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>18220</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>12144</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="86">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>22590</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="87">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>17722</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="88">
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>31824</v>
+        <v>15912</v>
       </c>
     </row>
     <row r="89">
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22754</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="90">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>17604</v>
+        <v>8802</v>
       </c>
     </row>
     <row r="91">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>12960</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="92">
@@ -11378,6 +11378,54 @@
       </c>
       <c r="F456" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="F457" t="n">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F458" t="n">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
